--- a/data/trans_camb/P18_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +709,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,77</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,19</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,55</t>
+          <t>-3,85</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,59</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-4,95</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -2,86</t>
+          <t>-17,17; -3,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -1,12</t>
+          <t>-14,8; -0,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 1,53</t>
+          <t>-10,74; 4,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,35; 96,59</t>
+          <t>-12,28; -0,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,25</t>
+          <t>-4,3; 3,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -0,39</t>
+          <t>-2,78; 5,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -1,83</t>
+          <t>-8,72; -0,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,23; 93,47</t>
+          <t>-8,2; 0,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -2,89</t>
+          <t>-9,57; -2,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -1,7</t>
+          <t>-9,41; -1,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -0,94</t>
+          <t>-0,46; 4,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,56; 94,16</t>
+          <t>-9,22; -0,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; -2,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; -1,49</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 0,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; -1,74</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,9</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 1,38</t>
         </is>
       </c>
     </row>
@@ -797,57 +905,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-79,12%</t>
+          <t>-76,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-50,32%</t>
+          <t>-30,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1332,52%</t>
+          <t>-70,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,37%</t>
+          <t>-33,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-64,89%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-90,31%</t>
+          <t>-76,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1639,0%</t>
+          <t>-64,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-89,15%</t>
+          <t>-90,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-91,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-68,46%</t>
+          <t>231,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1460,2%</t>
+          <t>-71,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-90,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-71,3%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-57,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-79,82%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-55,77%</t>
         </is>
       </c>
     </row>
@@ -865,57 +1003,87 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,41</t>
+          <t>-100,0; 94,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-95,85; 74,63</t>
+          <t>-92,69; 163,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>515,4; 3401,28</t>
+          <t>-100,0; 130,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,55; 21,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,92</t>
+          <t>-100,0; 25,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>833,29; 3397,07</t>
+          <t>-93,04; 28,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -47,82</t>
+          <t>-100,0; -23,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-91,96; -32,91</t>
+          <t>-100,0; -17,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-92,2; -8,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>768,97; 2567,25</t>
+          <t>-100,0; 74,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -54,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-92,6; -27,44</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-89,56; 26,25</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-97,42; -22,35</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-94,0; 197,1</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,78</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,32</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,98</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-6,86</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-6,06</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 2,51</t>
+          <t>-14,56; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,13; -2,88</t>
+          <t>-17,61; -2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -3,18</t>
+          <t>-18,33; -3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,76; 93,63</t>
+          <t>-17,02; -2,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -2,0</t>
+          <t>-2,69; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,1</t>
+          <t>-1,69; 7,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -2,18</t>
+          <t>-9,57; -1,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,0; 94,63</t>
+          <t>-6,7; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,29</t>
+          <t>-9,6; -1,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -1,52</t>
+          <t>-9,76; -1,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -3,97</t>
+          <t>-2,52; 2,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>83,83; 93,16</t>
+          <t>-3,18; 1,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,19; -0,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; -1,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; -3,75</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; -2,76</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 3,44</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 3,38</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,64%</t>
+          <t>-55,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-80,95%</t>
+          <t>-80,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-85,02%</t>
+          <t>-86,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>933,75%</t>
+          <t>-76,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-79,04%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>113,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-82,44%</t>
+          <t>-78,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1383,94%</t>
+          <t>-31,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-64,76%</t>
+          <t>-81,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-60,31%</t>
+          <t>-72,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-83,97%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1109,78%</t>
+          <t>-24,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-64,12%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-61,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-84,55%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-74,72%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>39,47%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-91,35; 90,46</t>
+          <t>-94,69; 64,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-96,67; -40,19</t>
+          <t>-96,58; -35,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -43,04</t>
+          <t>-100,0; -49,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>407,62; 1765,19</t>
+          <t>-100,0; -15,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,68; 76,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-96,18; -35,33</t>
+          <t>-99,16; -24,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>753,59; 2501,51</t>
+          <t>-73,04; 73,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,86; 4,34</t>
+          <t>-95,62; -32,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-82,3; -18,95</t>
+          <t>-94,56; -25,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-95,35; -60,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>579,47; 1669,05</t>
+          <t>-100,0; 371,8</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-89,57; 18,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-81,71; -24,22</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-94,68; -58,65</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-91,55; -36,37</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-61,07; 335,39</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-67,3; 393,42</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,89</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,13</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,99</t>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -0,57</t>
+          <t>-7,79; -0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,78</t>
+          <t>-4,56; 3,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; -0,51</t>
+          <t>-7,99; -0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,98; 92,59</t>
+          <t>-6,35; 2,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,84</t>
+          <t>-3,78; 4,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,73</t>
+          <t>-3,96; 4,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,9</t>
+          <t>-3,65; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>89,14; 95,73</t>
+          <t>-0,34; 5,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,09</t>
+          <t>-1,73; 4,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,97</t>
+          <t>-3,26; 2,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,83</t>
+          <t>-4,1; 1,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,95; 93,5</t>
+          <t>-5,44; 0,59</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; -0,34</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 3,66</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 1,0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 1,09</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 2,19</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 1,7</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-64,76%</t>
+          <t>-63,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-62,14%</t>
+          <t>-61,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1431,32%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,38%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,71%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2776,95%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>-17,93%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-27,15%</t>
+          <t>-46,41%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1909,55%</t>
+          <t>-58,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-49,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-25,93%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-27,45%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-4,94%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-22,52%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,91; -3,29</t>
+          <t>-87,58; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 118,93</t>
+          <t>-55,15; 92,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,74; -7,12</t>
+          <t>-87,85; 1,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>852,02; 2521,12</t>
+          <t>-74,23; 58,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,8; 103,98</t>
+          <t>-64,03; 216,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 276,41</t>
+          <t>-63,71; 164,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 200,64</t>
+          <t>-75,16; 102,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1530,19; 5254,59</t>
+          <t>-11,33; 270,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,15; 3,83</t>
+          <t>-39,79; 184,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 116,34</t>
+          <t>-72,26; 145,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 26,09</t>
+          <t>-100,0; 196,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1264,2; 2894,34</t>
+          <t>-100,0; 62,83</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-74,13; -3,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-25,59; 103,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-58,46; 30,24</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-63,96; 36,8</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-58,94; 99,4</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-62,8; 60,33</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1892,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1494,52 +1902,82 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,41</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77,3</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>80,28</t>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-7,91</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-7,4</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-8,12</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-8,13</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -1,53</t>
+          <t>-9,89; -1,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -1,58</t>
+          <t>-10,3; -2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -2,25</t>
+          <t>-10,09; -2,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>78,1; 87,84</t>
+          <t>-9,59; -0,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,35</t>
+          <t>-1,34; 8,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -4,78</t>
+          <t>-3,81; 6,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -5,81</t>
+          <t>-14,6; -5,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71,43; 82,11</t>
+          <t>-13,57; -4,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -4,99</t>
+          <t>-14,71; -5,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -4,54</t>
+          <t>-15,35; -6,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-11,01; -5,27</t>
+          <t>1,63; 10,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>76,27; 83,4</t>
+          <t>-3,61; 7,18</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; -4,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; -4,37</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; -5,12</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; -4,71</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 7,27</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 5,05</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-60,63%</t>
+          <t>-59,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-58,8%</t>
+          <t>-58,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-60,9%</t>
+          <t>-59,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>839,44%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-66,01%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,16%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-68,46%</t>
+          <t>-65,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>519,21%</t>
+          <t>-59,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-64,0%</t>
+          <t>-67,83%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-59,18%</t>
+          <t>-73,31%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-65,67%</t>
+          <t>140,14%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>641,44%</t>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-63,19%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-59,15%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-64,91%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-64,96%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>96,25%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-84,62; -12,46</t>
+          <t>-81,21; -3,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,6; -21,25</t>
+          <t>-79,88; -20,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,26; -27,92</t>
+          <t>-79,44; -24,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>568,32; 1243,6</t>
+          <t>-76,8; -5,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,24; -40,96</t>
+          <t>-27,85; 290,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,24; -36,13</t>
+          <t>-43,1; 153,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,57; -45,87</t>
+          <t>-81,37; -41,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>379,5; 723,17</t>
+          <t>-75,93; -35,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,42; -43,64</t>
+          <t>-81,4; -45,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-73,12; -39,86</t>
+          <t>-86,56; -51,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-77,05; -49,0</t>
+          <t>17,86; 382,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>493,63; 804,03</t>
+          <t>-37,61; 134,71</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-77,4; -40,74</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-72,34; -39,86</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-76,81; -47,19</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-78,18; -43,49</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 225,01</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-24,23; 95,05</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>76,44</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,8</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>66,86</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>71,53</t>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-11,35</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-6,96</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-10,16</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-11,33</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -6,38</t>
+          <t>-17,14; -6,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -2,16</t>
+          <t>-14,17; -2,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -3,33</t>
+          <t>-14,33; -2,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>68,45; 82,78</t>
+          <t>-15,83; -2,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -4,69</t>
+          <t>-4,17; 6,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 1,31</t>
+          <t>-7,95; 4,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -5,79</t>
+          <t>-17,3; -4,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,43; 73,29</t>
+          <t>-12,85; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,37; -6,89</t>
+          <t>-18,21; -6,42</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -2,63</t>
+          <t>-19,19; -7,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -5,76</t>
+          <t>-4,66; 5,56</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>66,17; 76,04</t>
+          <t>-13,22; -1,67</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-15,49; -6,95</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; -2,76</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; -6,31</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-16,03; -7,18</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 4,67</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; -0,25</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-75,6%</t>
+          <t>-76,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-54,75%</t>
+          <t>-54,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-57,5%</t>
+          <t>-55,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>502,34%</t>
+          <t>-62,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-57,94%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-61,23%</t>
+          <t>-58,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>346,91%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-65,52%</t>
+          <t>-61,51%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-40,03%</t>
+          <t>-68,28%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-59,53%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>415,04%</t>
+          <t>-52,25%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-65,86%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-40,4%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-58,98%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-65,74%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-36,46%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,12; -51,25</t>
+          <t>-91,34; -51,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,83; -16,34</t>
+          <t>-75,79; -17,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,32; -27,87</t>
+          <t>-76,34; -23,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>345,13; 756,5</t>
+          <t>-82,77; -16,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,62; -26,78</t>
+          <t>-54,39; 208,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 9,96</t>
+          <t>-60,47; 98,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,07; -35,66</t>
+          <t>-76,77; -26,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>241,95; 483,92</t>
+          <t>-53,91; 7,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-78,65; -45,52</t>
+          <t>-78,73; -36,04</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-58,34; -16,39</t>
+          <t>-85,07; -40,84</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-73,56; -38,81</t>
+          <t>-56,53; 164,92</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>317,04; 539,2</t>
+          <t>-75,81; -12,31</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-78,89; -48,84</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-58,24; -16,49</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-72,07; -41,18</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-79,66; -45,18</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-39,01; 107,36</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-63,22; -2,25</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,97</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73,59</t>
+          <t>-14,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-14,84</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-16,78</t>
+          <t>-14,38</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>64,21</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-13,57</t>
+          <t>-15,65</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-20,38</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>68,23</t>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-13,48</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-12,05</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-15,64</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-17,98</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -2,85</t>
+          <t>-18,84; -2,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -2,07</t>
+          <t>-17,16; -2,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -10,18</t>
+          <t>-21,31; -9,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>66,12; 80,22</t>
+          <t>-21,16; -8,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,19; -7,42</t>
+          <t>-3,07; 7,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -7,16</t>
+          <t>-8,11; 4,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-23,07; -9,66</t>
+          <t>-21,56; -6,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>55,46; 70,79</t>
+          <t>-20,6; -7,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -7,13</t>
+          <t>-22,48; -6,16</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -6,86</t>
+          <t>-27,0; -13,14</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -11,67</t>
+          <t>-2,75; 11,35</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>62,57; 73,52</t>
+          <t>-6,0; 8,78</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-18,7; -7,31</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; -6,64</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; -10,02</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; -13,03</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 8,06</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 5,23</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-64,06%</t>
+          <t>-66,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-50,86%</t>
+          <t>-53,75%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-82,86%</t>
+          <t>-82,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>393,9%</t>
+          <t>-78,74%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-55,24%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-51,76%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-62,47%</t>
+          <t>-53,51%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>238,98%</t>
+          <t>-50,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-58,08%</t>
+          <t>-58,24%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-51,51%</t>
+          <t>-75,85%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-69,69%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>292,14%</t>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-57,7%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-51,58%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-66,96%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-76,97%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>62,68%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-86,86; -4,2</t>
+          <t>-87,23; -0,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -6,09</t>
+          <t>-76,38; -9,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-92,88; -63,71</t>
+          <t>-92,23; -63,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>270,52; 569,31</t>
+          <t>-92,9; -47,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-72,79; -29,3</t>
+          <t>-60,68; 534,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -30,96</t>
+          <t>-71,85; 111,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-76,71; -37,37</t>
+          <t>-71,47; -29,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>173,72; 314,34</t>
+          <t>-66,85; -30,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-72,87; -34,48</t>
+          <t>-74,85; -24,35</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-65,13; -31,04</t>
+          <t>-89,01; -53,46</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-80,41; -53,79</t>
+          <t>-32,13; 339,69</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>235,38; 372,65</t>
+          <t>-50,81; 171,08</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-71,63; -29,27</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-65,75; -31,92</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-78,63; -43,57</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-87,72; -60,34</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-19,48; 246,1</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-43,56; 94,79</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>84,04</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>79,76</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>81,87</t>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-5,76</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -4,92</t>
+          <t>-9,9; -4,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -3,53</t>
+          <t>-8,44; -3,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -5,41</t>
+          <t>-9,8; -5,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>81,08; 86,22</t>
+          <t>-9,38; -4,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -5,69</t>
+          <t>-0,66; 3,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -3,4</t>
+          <t>-2,01; 2,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,1</t>
+          <t>-10,04; -5,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>76,98; 81,93</t>
+          <t>-7,66; -3,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -6,04</t>
+          <t>-9,92; -5,7</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -4,1</t>
+          <t>-11,34; -7,38</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -6,23</t>
+          <t>-0,09; 3,74</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>80,13; 83,51</t>
+          <t>-3,74; 0,9</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; -6,01</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; -4,32</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; -6,09</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; -6,7</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,05</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 0,88</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-68,28%</t>
+          <t>-68,39%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-54,04%</t>
+          <t>-55,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-68,95%</t>
+          <t>-66,83%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>778,49%</t>
+          <t>-64,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-59,46%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-42,35%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-62,33%</t>
+          <t>-58,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>605,41%</t>
+          <t>-41,98%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-63,3%</t>
+          <t>-60,41%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-71,43%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-65,24%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>681,69%</t>
+          <t>-20,32%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-62,91%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-47,95%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-63,23%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-68,22%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-80,05; -49,34</t>
+          <t>-79,69; -46,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -36,01</t>
+          <t>-67,23; -39,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-78,14; -57,52</t>
+          <t>-77,04; -53,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>620,43; 932,9</t>
+          <t>-75,57; -47,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-69,66; -45,95</t>
+          <t>-14,15; 120,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-53,11; -28,78</t>
+          <t>-34,29; 52,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-71,52; -50,3</t>
+          <t>-68,69; -43,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>518,63; 709,85</t>
+          <t>-52,96; -28,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-71,08; -53,18</t>
+          <t>-69,31; -47,09</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -36,56</t>
+          <t>-79,46; -60,4</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-71,65; -57,19</t>
+          <t>-4,13; 130,61</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>601,3; 773,19</t>
+          <t>-45,09; 16,5</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-71,28; -53,17</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; -38,77</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-70,28; -54,13</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-75,21; -59,49</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 90,24</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-32,63; 16,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
